--- a/flows/SHYG_fund_flow_data.xlsx
+++ b/flows/SHYG_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B219"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2625,6 +2625,186 @@
         <v>16.33128</v>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>8.17398</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>32.88904</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>-24.74208</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>-41.2228</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>-28.88816</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>20.7825</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
